--- a/medicine/Mort/Cimetière_de_Bideford_Higher/Cimetière_de_Bideford_Higher.xlsx
+++ b/medicine/Mort/Cimetière_de_Bideford_Higher/Cimetière_de_Bideford_Higher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bideford_Higher</t>
+          <t>Cimetière_de_Bideford_Higher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bideford Higher est un cimetière situé à Bideford, dans le Nord du Devon. Aujourd'hui, il est géré par le conseil du district de Torridge. 
 Le cimetière a été inauguré, par le maire de Bideford, WL Yellacott, le 6 septembre 1889. Les archives du cimetière de 1899 à 1966 sont conservées au North Devon Athenaeum, une bibliothèque privée qui se situe dans le dernier étage du bâtiment de la bibliothèque Barnstaple. Le cimetière compte 13 sépultures de la Première Guerre mondiale et de la Seconde Guerre mondiale reconnaissable à leurs pierres tombales distinctives de la Commonwealth War Graves Commission. 
